--- a/models_results.xlsx
+++ b/models_results.xlsx
@@ -1,21 +1,106 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noble/Dropbox/1_Research/1_Manuscripts/In_Preparation/Ldeli_growth/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7777EE87-877F-3D47-BC46-F95FFDD0D6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="14260" yWindow="3680" windowWidth="25640" windowHeight="12120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="r2" sheetId="1" r:id="rId1"/>
+    <sheet name="r2_all" sheetId="1" r:id="rId1"/>
+    <sheet name="waic_all" sheetId="2" r:id="rId2"/>
+    <sheet name="loo_all" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
+  <si>
+    <t>Name Detail</t>
+  </si>
+  <si>
+    <t>Estimate</t>
+  </si>
+  <si>
+    <t>Q2.5</t>
+  </si>
+  <si>
+    <t>Q97.5</t>
+  </si>
+  <si>
+    <t>Model 1 - intercepts for G, M, PE</t>
+  </si>
+  <si>
+    <t>Model 2 - linear slopes for G, M, PE</t>
+  </si>
+  <si>
+    <t>Model 3 - quadratic slopes for G, M, PE</t>
+  </si>
+  <si>
+    <t>Model 4 - intercept for G, linear slopes for M, PE</t>
+  </si>
+  <si>
+    <t>Model 5 - intercept for M, linear slopes for G, PE</t>
+  </si>
+  <si>
+    <t>Model 6 - intercept for PE, linear slopes for G, M</t>
+  </si>
+  <si>
+    <t>Model 7 - intercept for PE, quadratic slopes for G, M</t>
+  </si>
+  <si>
+    <t>Model 8 - intercept for PE, quadratic slopes for G, no M</t>
+  </si>
+  <si>
+    <t>Model 9 - quadratic for G, PE, no M</t>
+  </si>
+  <si>
+    <t>Model 10 - intercept for G, M, no PE</t>
+  </si>
+  <si>
+    <t>Model 11 - linear slopes for G, M, no PE</t>
+  </si>
+  <si>
+    <t>Model 12 - quadratic slopes for G, M, no PE</t>
+  </si>
+  <si>
+    <t>Model 13 - quadratic slope for M, intercept for G, no PE</t>
+  </si>
+  <si>
+    <t>Model 14 - quadratic slope for G, intercept for M, no PE</t>
+  </si>
+  <si>
+    <t>Model 15 - quadratic slope for G, no M, no PE</t>
+  </si>
+  <si>
+    <t>Model 16 - linear slope for G, no M, no PE</t>
+  </si>
+  <si>
+    <t>waic</t>
+  </si>
+  <si>
+    <t>elpd_diff</t>
+  </si>
+  <si>
+    <t>se_diff</t>
+  </si>
+  <si>
+    <t>looic</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,24 +137,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +201,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +235,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +270,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,228 +446,766 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>.id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Estimate</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Est.Error</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Q2.5</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Q97.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>mod_1</t>
-        </is>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>0.09432702307150041</v>
+        <v>9.4327023071500413E-2</v>
       </c>
       <c r="C2">
-        <v>0.01306199362278837</v>
+        <v>7.0155290814304577E-2</v>
       </c>
       <c r="D2">
-        <v>0.07015529081430458</v>
-      </c>
-      <c r="E2">
         <v>0.1207456806602222</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>mod_2</t>
-        </is>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>0.8909901135805328</v>
+        <v>0.89099011358053282</v>
       </c>
       <c r="C3">
-        <v>0.001830974080439405</v>
+        <v>0.887319809697379</v>
       </c>
       <c r="D3">
-        <v>0.887319809697379</v>
-      </c>
-      <c r="E3">
         <v>0.8944853194072524</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>mod_3</t>
-        </is>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
         <v>0.9456933485558191</v>
       </c>
-      <c r="C4">
-        <v>0.0009081115513220614</v>
-      </c>
-      <c r="D4">
-        <v>0.9437883268551924</v>
-      </c>
-      <c r="E4">
-        <v>0.9473721095270217</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>mod_4</t>
-        </is>
+      <c r="C4" s="2">
+        <v>0.94378832685519243</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.94737210952702167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>0.8910980219311085</v>
+        <v>0.89109802193110854</v>
       </c>
       <c r="C5">
-        <v>0.001800906478284714</v>
+        <v>0.88725078925889578</v>
       </c>
       <c r="D5">
-        <v>0.8872507892588958</v>
-      </c>
-      <c r="E5">
-        <v>0.8943866986701257</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>mod_5</t>
-        </is>
+        <v>0.89438669867012566</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>0.8847145164150856</v>
+        <v>0.89242586074121077</v>
       </c>
       <c r="C6">
-        <v>0.002876359413363934</v>
+        <v>0.88873486279983616</v>
       </c>
       <c r="D6">
-        <v>0.8787443044611042</v>
-      </c>
-      <c r="E6">
-        <v>0.889944422491224</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>mod_6</t>
-        </is>
+        <v>0.89573716477180332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>0.890885212965546</v>
+        <v>0.89088521296554601</v>
       </c>
       <c r="C7">
-        <v>0.001814748435622911</v>
+        <v>0.88736752380889639</v>
       </c>
       <c r="D7">
-        <v>0.8873675238088964</v>
-      </c>
-      <c r="E7">
-        <v>0.8942541315739924</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>mod_7</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>0.9456933174128656</v>
-      </c>
-      <c r="C8">
-        <v>0.000892254662308614</v>
-      </c>
-      <c r="D8">
-        <v>0.943930314133735</v>
-      </c>
-      <c r="E8">
-        <v>0.9474459615367511</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>mod_8</t>
-        </is>
+        <v>0.89425413157399236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.94569331741286555</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.94393031413373496</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.94744596153675109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
       </c>
       <c r="B9">
         <v>0.9454246352514214</v>
       </c>
       <c r="C9">
-        <v>0.0009388651541569747</v>
+        <v>0.94352177868622844</v>
       </c>
       <c r="D9">
-        <v>0.9435217786862284</v>
-      </c>
-      <c r="E9">
         <v>0.9472166269486213</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>mod_9</t>
-        </is>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>0.9454636178675048</v>
+        <v>0.94546361786750477</v>
       </c>
       <c r="C10">
-        <v>0.00093196009365506</v>
+        <v>0.9435679959562594</v>
       </c>
       <c r="D10">
-        <v>0.9435679959562594</v>
-      </c>
-      <c r="E10">
-        <v>0.9472208149331827</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>mod_10</t>
-        </is>
+        <v>0.94722081493318266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>0.08083596226590041</v>
+        <v>8.083596226590041E-2</v>
       </c>
       <c r="C11">
-        <v>0.01238048941315682</v>
+        <v>5.6978857408049213E-2</v>
       </c>
       <c r="D11">
-        <v>0.05697885740804921</v>
-      </c>
-      <c r="E11">
-        <v>0.1053191506658974</v>
+        <v>0.10531915066589741</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0.89066003518806902</v>
+      </c>
+      <c r="C12">
+        <v>0.88692647425349214</v>
+      </c>
+      <c r="D12">
+        <v>0.89398716583592375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.94557150217363972</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.94370936456958865</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.94730018240913549</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>0.87683458927188607</v>
+      </c>
+      <c r="C14">
+        <v>0.87305005706431782</v>
+      </c>
+      <c r="D14">
+        <v>0.88051177592289287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>0.89225250824824542</v>
+      </c>
+      <c r="C15">
+        <v>0.88880039470131111</v>
+      </c>
+      <c r="D15">
+        <v>0.89553030004014011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>0.94539187561273275</v>
+      </c>
+      <c r="C16">
+        <v>0.94354880863828905</v>
+      </c>
+      <c r="D16">
+        <v>0.94713470968381153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>0.89228773991038368</v>
+      </c>
+      <c r="C17">
+        <v>0.88892162802612573</v>
+      </c>
+      <c r="D17">
+        <v>0.89561689509696307</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>-3259.9651039034811</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>-3258.8368248010479</v>
+      </c>
+      <c r="C3">
+        <v>-0.56413955121200599</v>
+      </c>
+      <c r="D3">
+        <v>2.695903935320723</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>-3257.4808670215739</v>
+      </c>
+      <c r="C4">
+        <v>-1.2421184409472801</v>
+      </c>
+      <c r="D4">
+        <v>2.198210370977193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>-3160.4106575839369</v>
+      </c>
+      <c r="C5">
+        <v>-49.777223159765242</v>
+      </c>
+      <c r="D5">
+        <v>12.578926863198239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>-3156.1900034225569</v>
+      </c>
+      <c r="C6">
+        <v>-51.887550240451091</v>
+      </c>
+      <c r="D6">
+        <v>12.458542729731819</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>-3155.031228323317</v>
+      </c>
+      <c r="C7">
+        <v>-52.466937790077253</v>
+      </c>
+      <c r="D7">
+        <v>12.44178077379379</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>-1388.07400594919</v>
+      </c>
+      <c r="C8">
+        <v>-935.94554897713806</v>
+      </c>
+      <c r="D8">
+        <v>39.082021793871242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>-1385.2498723910519</v>
+      </c>
+      <c r="C9">
+        <v>-937.35761575620893</v>
+      </c>
+      <c r="D9">
+        <v>39.096886708908222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>-1385.1527039853031</v>
+      </c>
+      <c r="C10">
+        <v>-937.40619995908446</v>
+      </c>
+      <c r="D10">
+        <v>39.079780258723247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>-1384.59052289428</v>
+      </c>
+      <c r="C11">
+        <v>-937.6872905045941</v>
+      </c>
+      <c r="D11">
+        <v>39.997083538623151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>-1382.7701433960251</v>
+      </c>
+      <c r="C12">
+        <v>-938.59748025372664</v>
+      </c>
+      <c r="D12">
+        <v>39.997376371887547</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>-1381.456825490882</v>
+      </c>
+      <c r="C13">
+        <v>-939.25413920629364</v>
+      </c>
+      <c r="D13">
+        <v>39.065261662428412</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>-1380.495879130473</v>
+      </c>
+      <c r="C14">
+        <v>-939.73461238649747</v>
+      </c>
+      <c r="D14">
+        <v>40.100531746541463</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>-1158.0926110732589</v>
+      </c>
+      <c r="C15">
+        <v>-1050.9362464151061</v>
+      </c>
+      <c r="D15">
+        <v>40.631958298116437</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>4550.2951569074594</v>
+      </c>
+      <c r="C16">
+        <v>-3905.1301304054559</v>
+      </c>
+      <c r="D16">
+        <v>49.985693455719243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>4568.7220018372846</v>
+      </c>
+      <c r="C17">
+        <v>-3914.3435528703781</v>
+      </c>
+      <c r="D17">
+        <v>50.083174635631423</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>-3203.553868203468</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>-3200.8443974707388</v>
+      </c>
+      <c r="C3">
+        <v>-1.354735366366991</v>
+      </c>
+      <c r="D3">
+        <v>3.3438697104970059</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>-3198.9533565033998</v>
+      </c>
+      <c r="C4">
+        <v>-2.3002558500382229</v>
+      </c>
+      <c r="D4">
+        <v>2.6362672992880252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>-3087.9860734099798</v>
+      </c>
+      <c r="C5">
+        <v>-57.783897396750589</v>
+      </c>
+      <c r="D5">
+        <v>13.11395330923536</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>-3081.8392717297811</v>
+      </c>
+      <c r="C6">
+        <v>-60.857298236845047</v>
+      </c>
+      <c r="D6">
+        <v>12.96581193660051</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>-3071.7518798798592</v>
+      </c>
+      <c r="C7">
+        <v>-65.900994161808455</v>
+      </c>
+      <c r="D7">
+        <v>12.869739819395219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>-1366.236620122133</v>
+      </c>
+      <c r="C8">
+        <v>-918.65862404067309</v>
+      </c>
+      <c r="D8">
+        <v>39.685521804117727</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>-1365.840241724055</v>
+      </c>
+      <c r="C9">
+        <v>-918.85681323971176</v>
+      </c>
+      <c r="D9">
+        <v>39.684447269976587</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>-1364.404921190705</v>
+      </c>
+      <c r="C10">
+        <v>-919.57447350638495</v>
+      </c>
+      <c r="D10">
+        <v>39.66373079034036</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>-1358.3053842912509</v>
+      </c>
+      <c r="C11">
+        <v>-922.6242419561114</v>
+      </c>
+      <c r="D11">
+        <v>39.68699435806073</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>-1353.142593421529</v>
+      </c>
+      <c r="C12">
+        <v>-925.20563739097213</v>
+      </c>
+      <c r="D12">
+        <v>40.667781197128477</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>-1352.781953286292</v>
+      </c>
+      <c r="C13">
+        <v>-925.38595745859095</v>
+      </c>
+      <c r="D13">
+        <v>40.65171582040383</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>-1350.0581613751831</v>
+      </c>
+      <c r="C14">
+        <v>-926.74785341415202</v>
+      </c>
+      <c r="D14">
+        <v>40.634918326666849</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>-1150.478559701844</v>
+      </c>
+      <c r="C15">
+        <v>-1026.5376542508141</v>
+      </c>
+      <c r="D15">
+        <v>41.076649564797847</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>4551.695753085718</v>
+      </c>
+      <c r="C16">
+        <v>-3877.6248106445992</v>
+      </c>
+      <c r="D16">
+        <v>50.352545449829158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>4569.740788062456</v>
+      </c>
+      <c r="C17">
+        <v>-3886.6473281329681</v>
+      </c>
+      <c r="D17">
+        <v>50.450121038523207</v>
       </c>
     </row>
   </sheetData>
